--- a/producehelper-master/src/main/resources/config/stations2.xlsx
+++ b/producehelper-master/src/main/resources/config/stations2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="322">
   <si>
     <t>站点编号</t>
   </si>
@@ -913,6 +913,9 @@
     <t>10.168.113.129</t>
   </si>
   <si>
+    <t>N9%TZGn2$cas</t>
+  </si>
+  <si>
     <t>AB2001</t>
   </si>
   <si>
@@ -947,6 +950,9 @@
   </si>
   <si>
     <t>10.168.108.129</t>
+  </si>
+  <si>
+    <t>Kh6s&amp;E+se*s%</t>
   </si>
   <si>
     <t>ALF001</t>
@@ -984,10 +990,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1011,59 +1017,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,7 +1025,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,7 +1041,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,7 +1056,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,6 +1137,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1124,31 +1153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,7 +1181,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,37 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,61 +1259,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,13 +1307,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,37 +1355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,11 +1375,70 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1407,65 +1472,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1474,10 +1480,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,133 +1492,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2014,7 +2020,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3911,20 +3917,22 @@
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A86" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -3939,13 +3947,13 @@
     </row>
     <row r="87" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A87" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -3960,13 +3968,13 @@
     </row>
     <row r="88" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A88" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -3981,13 +3989,13 @@
     </row>
     <row r="89" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A89" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -3995,20 +4003,22 @@
       <c r="E89" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="90" s="2" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>11</v>
@@ -4022,13 +4032,13 @@
     </row>
     <row r="91" ht="35" customHeight="1" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4042,13 +4052,13 @@
     </row>
     <row r="92" s="5" customFormat="1" ht="24" customHeight="1" spans="1:7">
       <c r="A92" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>11</v>
@@ -4057,10 +4067,10 @@
         <v>12</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/producehelper-master/src/main/resources/config/stations2.xlsx
+++ b/producehelper-master/src/main/resources/config/stations2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="444">
   <si>
     <t>站点编号</t>
   </si>
@@ -973,16 +973,382 @@
     <t>10.168.89.129</t>
   </si>
   <si>
+    <t>AH5007</t>
+  </si>
+  <si>
+    <t>衢州常山赵家坪站</t>
+  </si>
+  <si>
+    <t>10.168.105.1</t>
+  </si>
+  <si>
+    <t>AD4005</t>
+  </si>
+  <si>
+    <t>绍兴柯桥兴滨站</t>
+  </si>
+  <si>
+    <t>10.168.129.129</t>
+  </si>
+  <si>
+    <t>AH5006</t>
+  </si>
+  <si>
+    <t>衢州常山城东站</t>
+  </si>
+  <si>
+    <t>10.168.102.129</t>
+  </si>
+  <si>
+    <t>AL10XX</t>
+  </si>
+  <si>
+    <t>舟山定海小沙站</t>
+  </si>
+  <si>
+    <t>10.168.112.1</t>
+  </si>
+  <si>
+    <t>AL1001</t>
+  </si>
+  <si>
+    <t>AD1001</t>
+  </si>
+  <si>
+    <t>AD1002</t>
+  </si>
+  <si>
+    <t>绍兴柯桥长洪闸站</t>
+  </si>
+  <si>
+    <t>10.168.147.1</t>
+  </si>
+  <si>
+    <t>AH5003</t>
+  </si>
+  <si>
+    <t>衢州常山姜家堡站</t>
+  </si>
+  <si>
+    <t>10.168.101.1</t>
+  </si>
+  <si>
+    <t>AC9001</t>
+  </si>
+  <si>
+    <t>温州泰顺三魁站</t>
+  </si>
+  <si>
+    <t>10.168.97.1</t>
+  </si>
+  <si>
+    <t>AC4002</t>
+  </si>
+  <si>
+    <t>温州龙湾永兴南园站</t>
+  </si>
+  <si>
+    <t>10.168.94.1</t>
+  </si>
+  <si>
+    <t>AG5002</t>
+  </si>
+  <si>
+    <t>兰溪柏社东站</t>
+  </si>
+  <si>
+    <t>10.168.154.1</t>
+  </si>
+  <si>
+    <t>AD1003</t>
+  </si>
+  <si>
+    <t>绍兴柯桥柯南站</t>
+  </si>
+  <si>
+    <t>10.168.146.129</t>
+  </si>
+  <si>
+    <t>AJ4001</t>
+  </si>
+  <si>
+    <t>台州椒江滨富路站</t>
+  </si>
+  <si>
+    <t>10.168.88.129</t>
+  </si>
+  <si>
+    <t>AB9002</t>
+  </si>
+  <si>
+    <t>宁波象山大目湾巨鹰路站</t>
+  </si>
+  <si>
+    <t>10.168.138.1</t>
+  </si>
+  <si>
+    <t>AC8001</t>
+  </si>
+  <si>
+    <t>温州永嘉大若岩站</t>
+  </si>
+  <si>
+    <t>10.168.97.129</t>
+  </si>
+  <si>
+    <t>AE1003</t>
+  </si>
+  <si>
+    <t>湖州吴兴滨湖大道站</t>
+  </si>
+  <si>
+    <t>10.168.71.1</t>
+  </si>
+  <si>
+    <t>AE1001</t>
+  </si>
+  <si>
+    <t>湖州吴兴前村站</t>
+  </si>
+  <si>
+    <t>10.168.70.1</t>
+  </si>
+  <si>
+    <t>AC9002</t>
+  </si>
+  <si>
+    <t>AAH001</t>
+  </si>
+  <si>
+    <t>杭州西湖科海路站</t>
+  </si>
+  <si>
+    <t>10.168.95.129</t>
+  </si>
+  <si>
+    <t>AD5001</t>
+  </si>
+  <si>
+    <t>绍兴嵊州三江口站</t>
+  </si>
+  <si>
+    <t>10.168.151.1</t>
+  </si>
+  <si>
+    <t>AD5002</t>
+  </si>
+  <si>
+    <t>绍兴嵊州城南站</t>
+  </si>
+  <si>
+    <t>10.168.150.129</t>
+  </si>
+  <si>
+    <t>AAI001</t>
+  </si>
+  <si>
+    <t>杭州西湖石马站</t>
+  </si>
+  <si>
+    <t>10.168.95.1</t>
+  </si>
+  <si>
+    <t>AE1004</t>
+  </si>
+  <si>
+    <t>湖州吴兴中兴大道站</t>
+  </si>
+  <si>
+    <t>10.168.71.129</t>
+  </si>
+  <si>
+    <t>AHE004</t>
+  </si>
+  <si>
+    <t>衢州集聚纬五路站</t>
+  </si>
+  <si>
+    <t>10.168.107.129</t>
+  </si>
+  <si>
+    <t>AE1002</t>
+  </si>
+  <si>
+    <t>湖州吴兴鹏飞路站</t>
+  </si>
+  <si>
+    <t>10.168.70.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD3004 </t>
+  </si>
+  <si>
+    <t>绍兴上虞长塘站</t>
+  </si>
+  <si>
+    <t>10.168.149.1</t>
+  </si>
+  <si>
+    <t>AD3005</t>
+  </si>
+  <si>
+    <t>绍兴上虞白马湖站</t>
+  </si>
+  <si>
+    <t>10.168.150.1</t>
+  </si>
+  <si>
+    <t>ADG001</t>
+  </si>
+  <si>
+    <t>AJL001</t>
+  </si>
+  <si>
+    <t>台州集聚区聚英站</t>
+  </si>
+  <si>
+    <t>10.168.88.1</t>
+  </si>
+  <si>
+    <t>AL3001</t>
+  </si>
+  <si>
+    <t>舟山岱山岱东丰收站</t>
+  </si>
+  <si>
+    <t>10.168.112.129</t>
+  </si>
+  <si>
+    <t>AAB001</t>
+  </si>
+  <si>
+    <t>杭州桐庐新合站</t>
+  </si>
+  <si>
+    <t>10.168.80.129</t>
+  </si>
+  <si>
+    <t>ABG002</t>
+  </si>
+  <si>
+    <t>宁波象山城东站</t>
+  </si>
+  <si>
+    <t>10.168.143.129</t>
+  </si>
+  <si>
     <t>3308A01</t>
   </si>
   <si>
-    <t>柯城站--开发环境</t>
+    <t>通城站--开发环境</t>
   </si>
   <si>
     <t>192.168.0.11</t>
   </si>
   <si>
     <t>dedpm25syrx2</t>
+  </si>
+  <si>
+    <t>AH10022</t>
+  </si>
+  <si>
+    <t>通城2站--开发环境</t>
+  </si>
+  <si>
+    <t>122.112.161.12</t>
+  </si>
+  <si>
+    <t>PCzt%hgq&gt;A2_P@M3</t>
+  </si>
+  <si>
+    <t>AZ1001</t>
+  </si>
+  <si>
+    <t>高速能源站</t>
+  </si>
+  <si>
+    <t>10.173.9.1</t>
+  </si>
+  <si>
+    <t>AZ1002</t>
+  </si>
+  <si>
+    <t>高速富阳西站</t>
+  </si>
+  <si>
+    <t>10.171.4.34</t>
+  </si>
+  <si>
+    <t>AZ1003</t>
+  </si>
+  <si>
+    <t>高速次坞南站</t>
+  </si>
+  <si>
+    <t>10.171.4.39</t>
+  </si>
+  <si>
+    <t>AZ1004</t>
+  </si>
+  <si>
+    <t>高速次坞北站</t>
+  </si>
+  <si>
+    <t>10.171.4.38</t>
+  </si>
+  <si>
+    <t>AZ1005</t>
+  </si>
+  <si>
+    <t>高速南浦溪北站</t>
+  </si>
+  <si>
+    <t>10.171.4.44</t>
+  </si>
+  <si>
+    <t>AZ1006</t>
+  </si>
+  <si>
+    <t>高速南浦溪南站</t>
+  </si>
+  <si>
+    <t>10.171.4.45</t>
+  </si>
+  <si>
+    <t>AZ1007</t>
+  </si>
+  <si>
+    <t>高速兰溪北站</t>
+  </si>
+  <si>
+    <t>10.171.4.42</t>
+  </si>
+  <si>
+    <t>AZ1008</t>
+  </si>
+  <si>
+    <t>高速兰溪南站</t>
+  </si>
+  <si>
+    <t>10.171.4.43</t>
+  </si>
+  <si>
+    <t>AZ1009</t>
+  </si>
+  <si>
+    <t>高速莫干山西站</t>
+  </si>
+  <si>
+    <t>10.171.4.35</t>
+  </si>
+  <si>
+    <t>AZ1010</t>
+  </si>
+  <si>
+    <t>高速莫干山东站</t>
+  </si>
+  <si>
+    <t>10.171.4.37</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1358,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1017,6 +1383,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1024,15 +1457,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1049,81 +1474,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,17 +1488,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,8 +1518,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,7 +1535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,97 +1547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,19 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,19 +1577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,7 +1595,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,19 +1733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,6 +1744,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1386,6 +1776,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,67 +1839,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1480,10 +1852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1492,152 +1864,158 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1650,6 +2028,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,6 +2044,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2015,54 +2408,54 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="$A68:$XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="14.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="14.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="26" customHeight="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2085,1992 +2478,2897 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8">
         <v>123456</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A19" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="G20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A21" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="G22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="G24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="G26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8">
         <v>123456</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A28" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="6" t="s">
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A30" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="8">
         <v>123456</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A32" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="6" t="s">
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A34" s="1" t="s">
+      <c r="G33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A34" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="6" t="s">
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A35" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="6" t="s">
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A36" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A37" s="1" t="s">
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="G38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A39" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A40" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A41" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A41" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="8">
         <v>123456</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="8">
         <v>123456</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="G42" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A43" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="8">
         <v>123456</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A44" s="1" t="s">
+      <c r="G43" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="8">
         <v>123456</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="G44" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A45" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="8">
         <v>123456</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A46" s="1" t="s">
+      <c r="G45" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A46" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="8">
         <v>123456</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="G46" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A47" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="8">
         <v>123456</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A48" s="1" t="s">
+      <c r="G47" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A48" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="6">
+      <c r="D48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="8">
         <v>123456</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="G48" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A49" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="8">
         <v>123456</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A50" s="1" t="s">
+      <c r="G49" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A50" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="8">
         <v>123456</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A51" s="1" t="s">
+      <c r="G50" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="8">
         <v>123456</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A52" s="1" t="s">
+      <c r="G51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A52" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="8">
         <v>123456</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A53" s="7" t="s">
+      <c r="G52" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A53" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A54" s="7" t="s">
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A55" s="7" t="s">
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A55" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A56" s="7" t="s">
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A56" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A57" s="7" t="s">
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A57" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A58" s="1" t="s">
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A58" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A59" s="1" t="s">
+      <c r="D58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A59" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A60" s="3" t="s">
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A60" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="3" t="s">
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A61" s="1" t="s">
+    <row r="61" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A61" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A62" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A62" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A63" s="1" t="s">
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A63" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A64" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A64" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A65" s="1" t="s">
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A65" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A66" s="1" t="s">
+      <c r="D65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A66" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A67" s="1" t="s">
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A67" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A68" s="1" t="s">
+      <c r="D67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A68" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A69" s="1" t="s">
+      <c r="D68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A69" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="1" t="s">
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="70" ht="35" customHeight="1" spans="1:7">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A73" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A73" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2" t="s">
+      <c r="D73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
+      <c r="D74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A76" s="1" t="s">
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A76" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
+      <c r="D78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
+      <c r="D79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="80" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1" t="s">
+      <c r="D80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="81" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
+      <c r="D81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="82" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A84" s="11" t="s">
+      <c r="D83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A84" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="D85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="86" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A87" s="11" t="s">
+      <c r="D86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A87" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
+      <c r="D87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
+      <c r="D88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="89" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="D89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A90" s="2" t="s">
+      <c r="G89" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" s="3" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A90" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="1" t="s">
+      <c r="D90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="91" ht="35" customHeight="1" spans="1:7">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" s="5" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A92" s="5" t="s">
+      <c r="D91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="5" t="s">
+      <c r="D92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A93" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G92" s="5" t="s">
-        <v>19</v>
+      <c r="B93" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A94" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A95" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A96" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A97" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A98" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A99" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A100" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A101" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A102" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A103" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A104" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A105" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A106" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="3"/>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A107" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A108" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A109" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A110" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A111" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A112" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A113" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A114" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A115" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A116" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A117" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A118" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A119" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A120" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A121" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A122" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A123" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" s="7" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A124" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G124" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" s="7" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A125" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G125" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A126" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A127" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A128" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A129" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A130" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A131" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A132" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="3"/>
+      <c r="G132" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A133" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A134" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A135" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/producehelper-master/src/main/resources/config/stations2.xlsx
+++ b/producehelper-master/src/main/resources/config/stations2.xlsx
@@ -1356,10 +1356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1383,14 +1383,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,31 +1472,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1449,29 +1510,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1481,48 +1519,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1553,7 +1553,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,175 +1727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,24 +1744,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1776,6 +1758,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1795,13 +1806,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1821,26 +1836,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1852,10 +1852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1864,137 +1864,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2007,15 +2007,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2028,12 +2022,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2044,12 +2032,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2413,7 +2395,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="$A68:$XFD68"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2494,7 +2476,7 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2517,7 +2499,7 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2540,7 +2522,7 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2563,7 +2545,7 @@
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2586,7 +2568,7 @@
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2609,7 +2591,7 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2632,7 +2614,7 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2655,7 +2637,7 @@
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2678,7 +2660,7 @@
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2701,7 +2683,7 @@
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2724,7 +2706,7 @@
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2747,7 +2729,7 @@
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2770,7 +2752,7 @@
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -2793,7 +2775,7 @@
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>123456</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2816,7 +2798,7 @@
       <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2839,7 +2821,7 @@
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2862,7 +2844,7 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -2885,7 +2867,7 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2908,7 +2890,7 @@
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2931,7 +2913,7 @@
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2954,7 +2936,7 @@
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -2977,7 +2959,7 @@
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3000,7 +2982,7 @@
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3023,7 +3005,7 @@
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3046,7 +3028,7 @@
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>123456</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3069,7 +3051,7 @@
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3092,7 +3074,7 @@
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>121</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3115,7 +3097,7 @@
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>123456</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3138,7 +3120,7 @@
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>128</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3161,7 +3143,7 @@
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>132</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3184,7 +3166,7 @@
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3207,7 +3189,7 @@
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3230,7 +3212,7 @@
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>144</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3253,7 +3235,7 @@
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>148</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3276,7 +3258,7 @@
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>152</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3299,7 +3281,7 @@
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>156</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3322,7 +3304,7 @@
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>160</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -3345,7 +3327,7 @@
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="6"/>
       <c r="G40" s="2" t="s">
         <v>19</v>
       </c>
@@ -3366,7 +3348,7 @@
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="6">
         <v>123456</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -3389,7 +3371,7 @@
       <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="6">
         <v>123456</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3412,7 +3394,7 @@
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="6">
         <v>123456</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -3435,7 +3417,7 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="6">
         <v>123456</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -3458,7 +3440,7 @@
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="6">
         <v>123456</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -3481,7 +3463,7 @@
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="6">
         <v>123456</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -3504,7 +3486,7 @@
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="6">
         <v>123456</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -3527,7 +3509,7 @@
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="6">
         <v>123456</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3550,7 +3532,7 @@
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="6">
         <v>123456</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -3573,7 +3555,7 @@
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="6">
         <v>123456</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -3596,7 +3578,7 @@
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="6">
         <v>123456</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -3619,7 +3601,7 @@
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="6">
         <v>123456</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -3627,13 +3609,13 @@
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3642,16 +3624,16 @@
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="8"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>204</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3663,19 +3645,19 @@
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="6" t="s">
         <v>208</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3684,19 +3666,19 @@
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="8"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="6" t="s">
         <v>211</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -3705,19 +3687,19 @@
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="8"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="6" t="s">
         <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -3726,7 +3708,7 @@
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="8"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="2" t="s">
         <v>19</v>
       </c>
@@ -3747,7 +3729,7 @@
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="2" t="s">
         <v>19</v>
       </c>
@@ -3768,7 +3750,7 @@
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="8"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="2" t="s">
         <v>19</v>
       </c>
@@ -3786,7 +3768,7 @@
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="10"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
@@ -3807,7 +3789,7 @@
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="8"/>
+      <c r="F61" s="6"/>
       <c r="G61" s="2" t="s">
         <v>19</v>
       </c>
@@ -3828,7 +3810,7 @@
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3849,7 +3831,7 @@
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="8"/>
+      <c r="F63" s="6"/>
       <c r="G63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3870,7 +3852,7 @@
       <c r="E64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="6"/>
       <c r="G64" s="3" t="s">
         <v>19</v>
       </c>
@@ -3891,7 +3873,7 @@
       <c r="E65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="8"/>
+      <c r="F65" s="6"/>
       <c r="G65" s="2" t="s">
         <v>19</v>
       </c>
@@ -3912,7 +3894,7 @@
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="8"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="2" t="s">
         <v>19</v>
       </c>
@@ -3933,29 +3915,29 @@
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="8"/>
+      <c r="F67" s="6"/>
       <c r="G67" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" s="4" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A68" s="4" t="s">
+    <row r="68" s="3" customFormat="1" ht="26" customHeight="1" spans="1:7">
+      <c r="A68" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12" t="s">
+      <c r="D68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3975,7 +3957,7 @@
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="8"/>
+      <c r="F69" s="6"/>
       <c r="G69" s="2" t="s">
         <v>19</v>
       </c>
@@ -4042,7 +4024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="73" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>259</v>
       </c>
@@ -4105,24 +4087,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A76" s="4" t="s">
+    <row r="76" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A76" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="12" t="s">
+      <c r="D76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4148,13 +4130,13 @@
       </c>
     </row>
     <row r="78" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="9" t="s">
         <v>276</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -4169,13 +4151,13 @@
       </c>
     </row>
     <row r="79" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="10" t="s">
         <v>279</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -4190,13 +4172,13 @@
       </c>
     </row>
     <row r="80" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="10" t="s">
         <v>282</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -4211,13 +4193,13 @@
       </c>
     </row>
     <row r="81" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="10" t="s">
         <v>285</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -4232,13 +4214,13 @@
       </c>
     </row>
     <row r="82" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="10" t="s">
         <v>288</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -4253,13 +4235,13 @@
       </c>
     </row>
     <row r="83" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="10" t="s">
         <v>291</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -4273,35 +4255,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A84" s="15" t="s">
+    <row r="84" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A84" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="12" t="s">
+      <c r="D84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="10" t="s">
         <v>297</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -4318,13 +4300,13 @@
       </c>
     </row>
     <row r="86" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="10" t="s">
         <v>301</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -4338,14 +4320,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A87" s="18" t="s">
+    <row r="87" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A87" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C87" s="10" t="s">
         <v>304</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4360,13 +4342,13 @@
       </c>
     </row>
     <row r="88" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="10" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4381,13 +4363,13 @@
       </c>
     </row>
     <row r="89" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="10" t="s">
         <v>310</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -4737,7 +4719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="106" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A106" s="3" t="s">
         <v>356</v>
       </c>
@@ -4758,7 +4740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="107" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A107" s="3" t="s">
         <v>359</v>
       </c>
@@ -4779,7 +4761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="108" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A108" s="3" t="s">
         <v>362</v>
       </c>
@@ -4800,7 +4782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="109" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A109" s="3" t="s">
         <v>365</v>
       </c>
@@ -4821,7 +4803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="110" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A110" s="3" t="s">
         <v>366</v>
       </c>
@@ -4842,7 +4824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="111" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A111" s="3" t="s">
         <v>369</v>
       </c>
@@ -4863,7 +4845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="112" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A112" s="3" t="s">
         <v>372</v>
       </c>
@@ -4884,7 +4866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="113" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A113" s="3" t="s">
         <v>375</v>
       </c>
@@ -4905,7 +4887,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="114" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A114" s="3" t="s">
         <v>378</v>
       </c>
@@ -4926,7 +4908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="115" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A115" s="3" t="s">
         <v>381</v>
       </c>
@@ -4947,7 +4929,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="116" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A116" s="3" t="s">
         <v>384</v>
       </c>
@@ -4968,7 +4950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="117" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A117" s="3" t="s">
         <v>387</v>
       </c>
@@ -4989,7 +4971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="118" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A118" s="3" t="s">
         <v>390</v>
       </c>
@@ -5010,7 +4992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="119" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A119" s="3" t="s">
         <v>393</v>
       </c>
@@ -5031,7 +5013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="120" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A120" s="3" t="s">
         <v>394</v>
       </c>
@@ -5052,7 +5034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="121" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A121" s="3" t="s">
         <v>397</v>
       </c>
@@ -5073,7 +5055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="122" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A122" s="3" t="s">
         <v>400</v>
       </c>
@@ -5090,11 +5072,11 @@
         <v>12</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="19" t="s">
+      <c r="G122" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="123" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A123" s="3" t="s">
         <v>403</v>
       </c>
@@ -5115,74 +5097,74 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" s="7" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A124" s="7" t="s">
+    <row r="124" s="5" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A124" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="7" t="s">
+      <c r="D124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="G124" s="19" t="s">
+      <c r="G124" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" s="7" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A125" s="7" t="s">
+    <row r="125" s="5" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A125" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="D125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="G125" s="19" t="s">
+      <c r="G125" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A126" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A126" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="127" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A127" s="3" t="s">
         <v>417</v>
       </c>
@@ -5199,11 +5181,11 @@
         <v>12</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="128" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="128" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A128" s="3" t="s">
         <v>420</v>
       </c>
@@ -5220,11 +5202,11 @@
         <v>12</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="4" t="s">
+      <c r="G128" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="129" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="129" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A129" s="3" t="s">
         <v>423</v>
       </c>
@@ -5241,11 +5223,11 @@
         <v>12</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="130" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A130" s="3" t="s">
         <v>426</v>
       </c>
@@ -5262,11 +5244,11 @@
         <v>12</v>
       </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="4" t="s">
+      <c r="G130" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="131" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A131" s="3" t="s">
         <v>429</v>
       </c>
@@ -5283,11 +5265,11 @@
         <v>12</v>
       </c>
       <c r="F131" s="2"/>
-      <c r="G131" s="4" t="s">
+      <c r="G131" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="132" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A132" s="3" t="s">
         <v>432</v>
       </c>
@@ -5304,11 +5286,11 @@
         <v>12</v>
       </c>
       <c r="F132" s="3"/>
-      <c r="G132" s="4" t="s">
+      <c r="G132" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="133" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A133" s="3" t="s">
         <v>435</v>
       </c>
@@ -5325,11 +5307,11 @@
         <v>12</v>
       </c>
       <c r="F133" s="3"/>
-      <c r="G133" s="4" t="s">
+      <c r="G133" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="134" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A134" s="3" t="s">
         <v>438</v>
       </c>
@@ -5346,11 +5328,11 @@
         <v>12</v>
       </c>
       <c r="F134" s="2"/>
-      <c r="G134" s="4" t="s">
+      <c r="G134" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="135" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+    <row r="135" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A135" s="3" t="s">
         <v>441</v>
       </c>
@@ -5367,7 +5349,7 @@
         <v>12</v>
       </c>
       <c r="F135" s="3"/>
-      <c r="G135" s="4" t="s">
+      <c r="G135" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/producehelper-master/src/main/resources/config/stations2.xlsx
+++ b/producehelper-master/src/main/resources/config/stations2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="521">
   <si>
     <t>站点编号</t>
   </si>
@@ -1237,6 +1237,243 @@
     <t>10.168.143.129</t>
   </si>
   <si>
+    <t>AG1001</t>
+  </si>
+  <si>
+    <t>金华义乌上溪四海大道站</t>
+  </si>
+  <si>
+    <t>10.168.156.1</t>
+  </si>
+  <si>
+    <t>AC3001</t>
+  </si>
+  <si>
+    <t>温州瑞安丁山站</t>
+  </si>
+  <si>
+    <t>10.171.4.129</t>
+  </si>
+  <si>
+    <t>AAC001</t>
+  </si>
+  <si>
+    <t>杭州建德绿荷塘站</t>
+  </si>
+  <si>
+    <t>10.168.67.129</t>
+  </si>
+  <si>
+    <t>AEG001</t>
+  </si>
+  <si>
+    <t>湖州长兴物流园区站</t>
+  </si>
+  <si>
+    <t>10.168.74.129</t>
+  </si>
+  <si>
+    <t>AC7001</t>
+  </si>
+  <si>
+    <t>温州平阳新园站</t>
+  </si>
+  <si>
+    <t>10.168.192.1</t>
+  </si>
+  <si>
+    <t>AG1002</t>
+  </si>
+  <si>
+    <t>金华赤岸义武公路站</t>
+  </si>
+  <si>
+    <t>10.168.156.129</t>
+  </si>
+  <si>
+    <t>AD3001</t>
+  </si>
+  <si>
+    <t>绍兴上虞马汪溇站</t>
+  </si>
+  <si>
+    <t>10.168.149.129</t>
+  </si>
+  <si>
+    <t>AB9003</t>
+  </si>
+  <si>
+    <t>宁波象山天安路站</t>
+  </si>
+  <si>
+    <t>10.168.144.1</t>
+  </si>
+  <si>
+    <t>AD3002</t>
+  </si>
+  <si>
+    <t>绍兴上虞滨海新城北站</t>
+  </si>
+  <si>
+    <t>10.168.147.129</t>
+  </si>
+  <si>
+    <t>AE4002</t>
+  </si>
+  <si>
+    <t>湖州南浔旧馆站</t>
+  </si>
+  <si>
+    <t>10.168.72.129</t>
+  </si>
+  <si>
+    <t>AL1002</t>
+  </si>
+  <si>
+    <t>舟山定海册子站</t>
+  </si>
+  <si>
+    <t>10.168.113.1</t>
+  </si>
+  <si>
+    <t>AG9001</t>
+  </si>
+  <si>
+    <t>金华磐安大盘站</t>
+  </si>
+  <si>
+    <t>10.168.159.129</t>
+  </si>
+  <si>
+    <t>AC8002</t>
+  </si>
+  <si>
+    <t>温州永嘉黄田白岩站</t>
+  </si>
+  <si>
+    <t>10.171.5.18</t>
+  </si>
+  <si>
+    <t>AG1004</t>
+  </si>
+  <si>
+    <t>金华永康山下水碓头站</t>
+  </si>
+  <si>
+    <t>10.168.157.1</t>
+  </si>
+  <si>
+    <t>AG4001</t>
+  </si>
+  <si>
+    <t>AEG002</t>
+  </si>
+  <si>
+    <t>湖州长兴陈王站</t>
+  </si>
+  <si>
+    <t>10.171.4.204:53306</t>
+  </si>
+  <si>
+    <t>AY1001</t>
+  </si>
+  <si>
+    <t>金华义乌赤岸义武公路站</t>
+  </si>
+  <si>
+    <t>AY2001</t>
+  </si>
+  <si>
+    <t>AD3003</t>
+  </si>
+  <si>
+    <t>绍兴上虞东二区站</t>
+  </si>
+  <si>
+    <t>10.168.148.1</t>
+  </si>
+  <si>
+    <t>AC1002</t>
+  </si>
+  <si>
+    <t>温州乐清仙溪站</t>
+  </si>
+  <si>
+    <t>10.168.192.129</t>
+  </si>
+  <si>
+    <t>AY3001</t>
+  </si>
+  <si>
+    <t>温州乐清经济开发区站</t>
+  </si>
+  <si>
+    <t>10.168.96.129</t>
+  </si>
+  <si>
+    <t>AC1003</t>
+  </si>
+  <si>
+    <t>温州乐清南塘站</t>
+  </si>
+  <si>
+    <t>10.171.5.12</t>
+  </si>
+  <si>
+    <t>AD6001</t>
+  </si>
+  <si>
+    <t>绍兴新昌沃西站</t>
+  </si>
+  <si>
+    <t>10.168.152.1</t>
+  </si>
+  <si>
+    <t>ADE001</t>
+  </si>
+  <si>
+    <t>绍兴新昌蝴蝶谷站</t>
+  </si>
+  <si>
+    <t>10.168.151.129</t>
+  </si>
+  <si>
+    <t>AAG001</t>
+  </si>
+  <si>
+    <t>杭州钱塘临江站</t>
+  </si>
+  <si>
+    <t>10.168.109.1</t>
+  </si>
+  <si>
+    <t>AAG002</t>
+  </si>
+  <si>
+    <t>杭州钱塘前进园区站</t>
+  </si>
+  <si>
+    <t>10.168.109.129</t>
+  </si>
+  <si>
+    <t>AH4003</t>
+  </si>
+  <si>
+    <t>衢州衢江下山溪站</t>
+  </si>
+  <si>
+    <t>10.168.199.1</t>
+  </si>
+  <si>
+    <t>AY2002</t>
+  </si>
+  <si>
+    <t>金华磐安尖山站</t>
+  </si>
+  <si>
+    <t>10.168.160.1</t>
+  </si>
+  <si>
     <t>3308A01</t>
   </si>
   <si>
@@ -1246,9 +1483,6 @@
     <t>192.168.0.11</t>
   </si>
   <si>
-    <t>dedpm25syrx2</t>
-  </si>
-  <si>
     <t>AH10022</t>
   </si>
   <si>
@@ -1256,9 +1490,6 @@
   </si>
   <si>
     <t>122.112.161.12</t>
-  </si>
-  <si>
-    <t>PCzt%hgq&gt;A2_P@M3</t>
   </si>
   <si>
     <t>AZ1001</t>
@@ -1356,10 +1587,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1389,24 +1620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,38 +1634,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,23 +1682,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1512,17 +1720,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1541,13 +1772,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,61 +1928,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,115 +1958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,6 +1975,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1769,39 +2033,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1852,10 +2083,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1864,16 +2095,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1882,119 +2113,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2010,7 +2241,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2034,7 +2271,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2390,12 +2633,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2476,7 +2719,7 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2499,7 +2742,7 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2522,7 +2765,7 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2545,7 +2788,7 @@
       <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2568,7 +2811,7 @@
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2591,7 +2834,7 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2614,7 +2857,7 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2637,7 +2880,7 @@
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2660,7 +2903,7 @@
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2683,7 +2926,7 @@
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2706,7 +2949,7 @@
       <c r="E13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2729,7 +2972,7 @@
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2752,7 +2995,7 @@
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -2775,7 +3018,7 @@
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>123456</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2798,7 +3041,7 @@
       <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -2821,7 +3064,7 @@
       <c r="E18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>78</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2844,7 +3087,7 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -2867,7 +3110,7 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
         <v>86</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2890,7 +3133,7 @@
       <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2913,7 +3156,7 @@
       <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>94</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -2936,7 +3179,7 @@
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -2959,7 +3202,7 @@
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2982,7 +3225,7 @@
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>106</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3005,7 +3248,7 @@
       <c r="E26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3028,7 +3271,7 @@
       <c r="E27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="8">
         <v>123456</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3051,7 +3294,7 @@
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3074,7 +3317,7 @@
       <c r="E29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>121</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3097,7 +3340,7 @@
       <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="8">
         <v>123456</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3120,7 +3363,7 @@
       <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>128</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3143,7 +3386,7 @@
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>132</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3166,7 +3409,7 @@
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>136</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3189,7 +3432,7 @@
       <c r="E34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="8" t="s">
         <v>140</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3212,7 +3455,7 @@
       <c r="E35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="8" t="s">
         <v>144</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3235,7 +3478,7 @@
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="8" t="s">
         <v>148</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3258,7 +3501,7 @@
       <c r="E37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>152</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3281,7 +3524,7 @@
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="8" t="s">
         <v>156</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3304,7 +3547,7 @@
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="8" t="s">
         <v>160</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -3327,7 +3570,7 @@
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="2" t="s">
         <v>19</v>
       </c>
@@ -3348,7 +3591,7 @@
       <c r="E41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="8">
         <v>123456</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -3371,7 +3614,7 @@
       <c r="E42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="8">
         <v>123456</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3394,7 +3637,7 @@
       <c r="E43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="8">
         <v>123456</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -3417,7 +3660,7 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="8">
         <v>123456</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -3440,7 +3683,7 @@
       <c r="E45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="8">
         <v>123456</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -3463,7 +3706,7 @@
       <c r="E46" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="8">
         <v>123456</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -3486,7 +3729,7 @@
       <c r="E47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="8">
         <v>123456</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -3509,7 +3752,7 @@
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="8">
         <v>123456</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3532,7 +3775,7 @@
       <c r="E49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="8">
         <v>123456</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -3555,7 +3798,7 @@
       <c r="E50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="8">
         <v>123456</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -3578,7 +3821,7 @@
       <c r="E51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="8">
         <v>123456</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -3601,7 +3844,7 @@
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="8">
         <v>123456</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -3609,13 +3852,13 @@
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3624,16 +3867,16 @@
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="9" t="s">
         <v>204</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3645,19 +3888,19 @@
       <c r="E54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>208</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3666,19 +3909,19 @@
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -3687,19 +3930,19 @@
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" ht="26" customHeight="1" spans="1:7">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>214</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -3708,7 +3951,7 @@
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="2" t="s">
         <v>19</v>
       </c>
@@ -3729,7 +3972,7 @@
       <c r="E58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="2" t="s">
         <v>19</v>
       </c>
@@ -3750,7 +3993,7 @@
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="2" t="s">
         <v>19</v>
       </c>
@@ -3768,7 +4011,7 @@
       <c r="E60" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="8"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="1" t="s">
         <v>14</v>
       </c>
@@ -3789,7 +4032,7 @@
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="2" t="s">
         <v>19</v>
       </c>
@@ -3810,7 +4053,7 @@
       <c r="E62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="6"/>
+      <c r="F62" s="8"/>
       <c r="G62" s="3" t="s">
         <v>19</v>
       </c>
@@ -3831,7 +4074,7 @@
       <c r="E63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3852,7 +4095,7 @@
       <c r="E64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="3" t="s">
         <v>19</v>
       </c>
@@ -3873,7 +4116,7 @@
       <c r="E65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="2" t="s">
         <v>19</v>
       </c>
@@ -3894,7 +4137,7 @@
       <c r="E66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="6"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="2" t="s">
         <v>19</v>
       </c>
@@ -3915,7 +4158,7 @@
       <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="6"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="2" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +4179,7 @@
       <c r="E68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="6"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="3" t="s">
         <v>19</v>
       </c>
@@ -3957,7 +4200,7 @@
       <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="2" t="s">
         <v>19</v>
       </c>
@@ -4041,7 +4284,7 @@
         <v>12</v>
       </c>
       <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4130,13 +4373,13 @@
       </c>
     </row>
     <row r="78" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="11" t="s">
         <v>276</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -4151,13 +4394,13 @@
       </c>
     </row>
     <row r="79" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="12" t="s">
         <v>279</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -4172,13 +4415,13 @@
       </c>
     </row>
     <row r="80" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="12" t="s">
         <v>282</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -4193,13 +4436,13 @@
       </c>
     </row>
     <row r="81" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="12" t="s">
         <v>285</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -4214,13 +4457,13 @@
       </c>
     </row>
     <row r="82" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="12" t="s">
         <v>288</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -4235,13 +4478,13 @@
       </c>
     </row>
     <row r="83" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="12" t="s">
         <v>291</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -4256,13 +4499,13 @@
       </c>
     </row>
     <row r="84" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="12" t="s">
         <v>294</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -4277,13 +4520,13 @@
       </c>
     </row>
     <row r="85" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="12" t="s">
         <v>297</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -4300,13 +4543,13 @@
       </c>
     </row>
     <row r="86" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="12" t="s">
         <v>301</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -4321,13 +4564,13 @@
       </c>
     </row>
     <row r="87" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="12" t="s">
         <v>304</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -4342,13 +4585,13 @@
       </c>
     </row>
     <row r="88" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="12" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4363,13 +4606,13 @@
       </c>
     </row>
     <row r="89" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="12" t="s">
         <v>310</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -5013,24 +5256,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A120" s="3" t="s">
+    <row r="120" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A120" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2" t="s">
+      <c r="D120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="15"/>
+      <c r="G120" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5072,8 +5315,8 @@
         <v>12</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="13" t="s">
-        <v>14</v>
+      <c r="G122" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="123" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
@@ -5097,62 +5340,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" s="5" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A124" s="5" t="s">
+    <row r="124" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A124" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="5" t="s">
+      <c r="D124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A125" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="G124" s="13" t="s">
+      <c r="B125" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="125" s="5" customFormat="1" ht="24" customHeight="1" spans="1:7">
-      <c r="A125" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="126" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A126" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>416</v>
-      </c>
       <c r="D126" s="3" t="s">
         <v>11</v>
       </c>
@@ -5160,41 +5399,41 @@
         <v>12</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="3" t="s">
-        <v>14</v>
+      <c r="G126" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A127" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="2"/>
+      <c r="D127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A128" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="D128" s="2" t="s">
         <v>11</v>
       </c>
@@ -5202,20 +5441,20 @@
         <v>12</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="3" t="s">
-        <v>14</v>
+      <c r="G128" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="129" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A129" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
       </c>
@@ -5223,20 +5462,20 @@
         <v>12</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="3" t="s">
-        <v>14</v>
+      <c r="G129" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="130" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A130" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>428</v>
-      </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
       </c>
@@ -5244,20 +5483,20 @@
         <v>12</v>
       </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="3" t="s">
-        <v>14</v>
+      <c r="G130" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="131" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A131" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>431</v>
-      </c>
       <c r="D131" s="2" t="s">
         <v>11</v>
       </c>
@@ -5265,91 +5504,679 @@
         <v>12</v>
       </c>
       <c r="F131" s="2"/>
-      <c r="G131" s="3" t="s">
-        <v>14</v>
+      <c r="G131" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A132" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3" t="s">
-        <v>14</v>
+      <c r="D132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="133" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A133" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3" t="s">
-        <v>14</v>
+      <c r="D133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="134" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A134" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="2"/>
+      <c r="D134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="3"/>
       <c r="G134" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
       <c r="A135" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="D135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A136" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="B136" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3" t="s">
+      <c r="C136" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A137" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A138" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A139" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A140" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A141" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="142" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A142" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A143" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" s="5" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A144" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="145" s="6" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A145" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A146" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A147" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A148" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A149" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A150" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A151" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" s="7" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A152" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="2"/>
+      <c r="G152" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" s="7" customFormat="1" ht="24" customHeight="1" spans="1:7">
+      <c r="A153" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A154" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A155" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A156" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A157" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" s="2"/>
+      <c r="G157" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A158" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" s="2"/>
+      <c r="G158" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A159" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A160" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A161" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A162" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" s="4" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A163" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3" t="s">
         <v>14</v>
       </c>
     </row>
